--- a/01_Input/00_CO Validation/Afghanistan - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Afghanistan - Energy Projects.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://undp.sharepoint.com/sites/UNDPSustainableEnergyHub/Shared Documents/General/0. CURRENT FOLDER - Sustainable Energy Hub/05. Accounting for Progress to 500M/7. CO Validation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="11_F15850ED0455DC3797A53417E9CD7CB278855C13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{83FDA03B-F802-41F2-B053-EB685C292C85}"/>
+  <xr:revisionPtr revIDLastSave="465" documentId="11_F15850ED0455DC3797A53417E9CD7CB278855C13" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{94280337-6447-476D-B2AD-EC795926E3BE}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="7575" yWindow="-15780" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="126">
   <si>
     <t>Project ID</t>
   </si>
@@ -74,7 +74,7 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
+    <t>VF or Non-VF</t>
   </si>
   <si>
     <t>Tag</t>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Rural Energy Market Transform (AREMTI)</t>
@@ -123,7 +132,7 @@
     <t>Close the gap on energy access</t>
   </si>
   <si>
-    <t>Renewable Energy</t>
+    <t>Solar</t>
   </si>
   <si>
     <t xml:space="preserve"> Sustainable Energy Services for Education and Health in Afghanistan (SESEHA)</t>
@@ -150,22 +159,19 @@
     <t>BMZ (Federal Ministry for Economic Cooperation and Development) through KFW (German Development Bank)</t>
   </si>
   <si>
-    <t>h</t>
+    <t>Health</t>
   </si>
   <si>
     <t>Accelerating just energy transition</t>
   </si>
   <si>
+    <t>ABADEI 2.0</t>
+  </si>
+  <si>
+    <t> </t>
+  </si>
+  <si>
     <t>Electricity Access</t>
-  </si>
-  <si>
-    <t>ABADEI 2.0</t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t>Health Services; Education Services</t>
   </si>
   <si>
     <t>Number of basic facilities powered through renewable energy, disaggregated by type of facility ( e.g. health, education, sanitation) and location
@@ -200,13 +206,10 @@
     <t>https://open.undp.org/projects/00138844</t>
   </si>
   <si>
-    <t xml:space="preserve">Electricity Access </t>
-  </si>
-  <si>
     <t>Number of individuals who gained access to clean and affordable energy  (disaggregated by sex)</t>
   </si>
   <si>
-    <t>11,000 HH</t>
+    <t>11000 HH</t>
   </si>
   <si>
     <t>Government of Japan, UNDP</t>
@@ -215,7 +218,7 @@
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>10,000 HH</t>
+    <t>10000 HH</t>
   </si>
   <si>
     <t xml:space="preserve">Strengthening Community Safety Well-being and Humanitarian Security in Afghanistan </t>
@@ -236,13 +239,16 @@
     <t>40000 HH</t>
   </si>
   <si>
-    <t>200,000 HH</t>
+    <t>200000 HH</t>
   </si>
   <si>
     <t xml:space="preserve">ASERD project was operationally completed in 2020. The beneficiaries continue to be served through this project and has increased since the commissioning of the minigrid. </t>
   </si>
   <si>
     <t>Republic of Korea, UNDP, Canada, Spain</t>
+  </si>
+  <si>
+    <t>Category</t>
   </si>
   <si>
     <t>US$21,398,843</t>
@@ -252,19 +258,34 @@
 Development (MRRD)</t>
   </si>
   <si>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
     <t>US$60,110,220</t>
   </si>
   <si>
     <t>BMZ(Federal Ministry for Economic Cooperation and Development) through KFW (German Development Bank)</t>
   </si>
   <si>
+    <t>h</t>
+  </si>
+  <si>
     <t>US$8,726,624</t>
   </si>
   <si>
+    <t>Health Services; Education Services</t>
+  </si>
+  <si>
     <t xml:space="preserve"> US$12,895,159 </t>
   </si>
   <si>
+    <t xml:space="preserve">Electricity Access </t>
+  </si>
+  <si>
     <t>11,000 households</t>
+  </si>
+  <si>
+    <t>10,000 HH</t>
   </si>
   <si>
     <t xml:space="preserve"> US$1,253,880 </t>
@@ -315,46 +336,58 @@
 cooking devices: 10,000 HHs</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
-  </si>
-  <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
-  </si>
-  <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
   </si>
   <si>
     <t>Water Services</t>
   </si>
   <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -363,9 +396,6 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
-  </si>
-  <si>
     <t xml:space="preserve">Financing support </t>
   </si>
   <si>
@@ -381,13 +411,10 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Entrepreneurship Training</t>
@@ -396,19 +423,19 @@
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -421,12 +448,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,8 +489,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,48 +512,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -686,19 +696,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -721,177 +718,166 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1198,10 +1184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12348C11-585E-45FB-A282-B510B4253AB6}">
-  <dimension ref="A1:R8"/>
+  <dimension ref="A1:U8"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H3" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2:R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1216,14 +1202,17 @@
     <col min="9" max="9" width="50.28515625" customWidth="1"/>
     <col min="10" max="10" width="32.85546875" customWidth="1"/>
     <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="17.42578125" customWidth="1"/>
     <col min="14" max="15" width="19" customWidth="1"/>
     <col min="17" max="17" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1239,7 +1228,7 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="37" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
@@ -1251,369 +1240,405 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="44" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="44" t="s">
+      <c r="L1" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="44" t="s">
+      <c r="O1" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="44" t="s">
+      <c r="P1" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="44" t="s">
+      <c r="Q1" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="44" t="s">
+      <c r="R1" s="52" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="45.75">
-      <c r="A2" s="19">
+      <c r="S1" s="50" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="50" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" s="5" customFormat="1" ht="45.75">
+      <c r="A2" s="16">
         <v>132059</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="20">
+      <c r="B2" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17">
         <v>21398843</v>
       </c>
-      <c r="E2" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="20">
+      <c r="E2" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="17">
         <v>2.6</v>
       </c>
-      <c r="I2" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" s="25"/>
-      <c r="N2" s="39" t="s">
+      <c r="I2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="J2" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="25"/>
-      <c r="Q2" s="25"/>
-      <c r="R2" s="25"/>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="229.5">
-      <c r="A3" s="19">
+      <c r="K2" s="21"/>
+      <c r="L2" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="21"/>
+      <c r="N2" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" s="33"/>
+      <c r="U2" s="51"/>
+    </row>
+    <row r="3" spans="1:21" s="5" customFormat="1" ht="229.5">
+      <c r="A3" s="16">
         <v>147445</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="17">
+        <v>60110220</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="22">
+        <v>1000000</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="24">
+        <v>0.5</v>
+      </c>
+      <c r="L3" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="20">
-        <v>60110220</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="26">
-        <v>1000000</v>
-      </c>
-      <c r="I3" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="L3" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P3" s="25"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-    </row>
-    <row r="4" spans="1:18" s="7" customFormat="1" ht="259.5">
-      <c r="A4" s="29">
+      <c r="M3" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="51"/>
+    </row>
+    <row r="4" spans="1:21" s="5" customFormat="1" ht="259.5">
+      <c r="A4" s="25">
         <v>1000372</v>
       </c>
-      <c r="B4" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="32">
+      <c r="B4" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="28">
         <v>8726624</v>
       </c>
-      <c r="E4" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G4" s="30" t="s">
+      <c r="E4" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="20">
+      <c r="F4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="17">
         <v>1188687</v>
       </c>
-      <c r="I4" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="34">
+      <c r="I4" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="30">
         <f>414661/1188687</f>
         <v>0.34883951788822459</v>
       </c>
-      <c r="L4" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="25"/>
-    </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" ht="30.75">
-      <c r="A5" s="46">
+      <c r="L4" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" s="33"/>
+      <c r="U4" s="51"/>
+    </row>
+    <row r="5" spans="1:21" s="5" customFormat="1" ht="30.75">
+      <c r="A5" s="41">
         <v>138844</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="47" t="s">
+      <c r="B5" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="43">
+        <v>12895159</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="27">
+        <v>0</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="19"/>
+      <c r="J5" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" s="21"/>
+      <c r="L5" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="21"/>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" s="33"/>
+      <c r="U5" s="51"/>
+    </row>
+    <row r="6" spans="1:21" s="5" customFormat="1" ht="30.75">
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="27">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" s="21"/>
+      <c r="L6" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="21"/>
+      <c r="N6" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="51"/>
+    </row>
+    <row r="7" spans="1:21" s="5" customFormat="1" ht="45.75">
+      <c r="A7" s="25">
+        <v>143651</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="27">
+        <v>1253880</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="27">
+        <v>0</v>
+      </c>
+      <c r="H7" s="27">
+        <v>60</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="48">
-        <v>12895159</v>
-      </c>
-      <c r="E5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="31">
-        <v>0</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="23"/>
-      <c r="J5" s="33" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M5" s="25"/>
-      <c r="N5" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="25"/>
-      <c r="R5" s="25"/>
-    </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" ht="30.75">
-      <c r="A6" s="49"/>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="31">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="35" t="s">
-        <v>50</v>
-      </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M6" s="25"/>
-      <c r="N6" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="25"/>
-      <c r="R6" s="25"/>
-    </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="45.75">
-      <c r="A7" s="29">
-        <v>143651</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="31" t="s">
+      <c r="K7" s="21"/>
+      <c r="L7" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="31">
-        <v>1253880</v>
-      </c>
-      <c r="E7" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="31">
-        <v>0</v>
-      </c>
-      <c r="H7" s="31">
+      <c r="O7" s="21"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="33"/>
+      <c r="U7" s="51"/>
+    </row>
+    <row r="8" spans="1:21" s="5" customFormat="1" ht="60.75">
+      <c r="A8" s="25">
+        <v>88841</v>
+      </c>
+      <c r="B8" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="26">
+        <v>12846044</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I8" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="K8" s="21"/>
+      <c r="L8" s="33" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="25"/>
-      <c r="N7" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P7" s="25"/>
-      <c r="Q7" s="25"/>
-      <c r="R7" s="25"/>
-    </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="60.75">
-      <c r="A8" s="29">
-        <v>88841</v>
-      </c>
-      <c r="B8" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="30">
-        <v>12846044</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="M8" s="25"/>
-      <c r="N8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="33"/>
+      <c r="U8" s="51"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{4AA64BEF-5D89-4C74-BD1A-3065D901282A}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
-    </dataValidation>
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8" xr:uid="{29873F1D-B532-42B2-9DAB-2A15FCFB5A42}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P8" xr:uid="{13618977-53EA-4311-9C6D-51F8C3C1C68B}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{45676DD2-AFA3-4DAF-A07F-9945EF5B8D73}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N8" xr:uid="{0FDF284A-DBCE-4AEE-94BF-BAB2513830E6}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O8" xr:uid="{9053B9D4-4EF1-444E-8B26-777293BABD8E}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T8" xr:uid="{2C1642AC-EA25-4126-8CD0-9B781B07C615}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M8" xr:uid="{A46AAF85-7D24-44AF-905B-0DFC8D9BA122}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L8" xr:uid="{0263D686-F7B8-4069-A2DA-7077A594CEBA}">
+      <formula1>"Non-VF, VF"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S8" xr:uid="{5445013B-A1F2-465F-8135-05645E95E0C2}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R8" xr:uid="{292A6FCC-702F-4B2A-AA55-83224500E73F}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -1622,6 +1647,18 @@
     <hyperlink ref="C5" r:id="rId3" xr:uid="{1D5C3B35-1BED-40FB-B553-082F4DAAB98A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{72F11084-96A1-4E9C-922C-4902F4C82D20}">
+          <x14:formula1>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1629,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217473D3-3271-4419-96A4-87621AB83DF7}">
   <dimension ref="A1:R8"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1651,7 +1688,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1660,336 +1697,336 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="18" t="s">
+      <c r="L1" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="7" customFormat="1" ht="60.75">
-      <c r="A2" s="5">
+    <row r="2" spans="1:18" s="5" customFormat="1" ht="60.75">
+      <c r="A2" s="3">
         <v>132059</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>62</v>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6">
+        <v>23</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" s="4">
         <v>2.6</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="7" t="s">
+      <c r="I2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" s="7" customFormat="1" ht="229.5">
-      <c r="A3" s="5">
+      <c r="J2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="5" customFormat="1" ht="229.5">
+      <c r="A3" s="3">
         <v>147445</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="5">
+        <v>50</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="M3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N3" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="9">
-        <v>1000000</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="K3" s="7">
-        <v>50</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O3" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" s="7" customFormat="1" ht="259.5">
-      <c r="A4" s="10">
+      <c r="O3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="5" customFormat="1" ht="259.5">
+      <c r="A4" s="8">
         <v>1000372</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="11" t="s">
+      <c r="B4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="C4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="D4" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="4">
         <v>1188687</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="7">
+      <c r="I4" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="5">
         <f>414661/1188687</f>
         <v>0.34883951788822459</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" s="7" customFormat="1" ht="30.75">
-      <c r="A5" s="10">
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="5" customFormat="1" ht="30.75">
+      <c r="A5" s="8">
         <v>138844</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="O5" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="5" customFormat="1" ht="30.75">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" s="7" customFormat="1" ht="30.75">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="H6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="L6" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" s="5" customFormat="1" ht="45.75">
+      <c r="A7" s="8">
+        <v>143651</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H7" s="10">
+        <v>60</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" s="5" customFormat="1" ht="60.75">
+      <c r="A8" s="8">
+        <v>88841</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O6" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" s="7" customFormat="1" ht="45.75">
-      <c r="A7" s="10">
-        <v>143651</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="12">
-        <v>60</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" s="7" customFormat="1" ht="60.75">
-      <c r="A8" s="10">
-        <v>88841</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2019,7 +2056,7 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2065,224 +2102,224 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="7" customFormat="1" ht="45">
-      <c r="A2" s="5">
+      <c r="L1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" s="5" customFormat="1" ht="45">
+      <c r="A2" s="3">
         <v>132059</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" s="7" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" s="7" customFormat="1" ht="105">
-      <c r="A3" s="5">
+      <c r="H2" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="5" customFormat="1" ht="105">
+      <c r="A3" s="3">
         <v>147445</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="7" customFormat="1" ht="210">
-      <c r="A4" s="10">
+    </row>
+    <row r="4" spans="1:12" s="5" customFormat="1" ht="210">
+      <c r="A4" s="8">
         <v>1000372</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="6" t="s">
+      <c r="B4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="D4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="J4" s="11" t="s">
+      <c r="F4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="K4" s="7">
+      <c r="H4" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="5">
         <f>414661/1188687</f>
         <v>0.34883951788822459</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="7" customFormat="1" ht="45">
-      <c r="A5" s="10">
+      <c r="L4" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="5" customFormat="1" ht="45">
+      <c r="A5" s="8">
         <v>138844</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="E5" s="12" t="s">
+      <c r="B5" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5" s="12">
+      <c r="C5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="7" customFormat="1" ht="45">
-      <c r="A6" s="10">
+      <c r="H5" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I5" s="7"/>
+      <c r="J5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="5" customFormat="1" ht="45">
+      <c r="A6" s="8">
         <v>143651</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="12">
+      <c r="B6" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="10">
         <v>0</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="10">
         <v>60</v>
       </c>
-      <c r="I6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="7" customFormat="1" ht="60">
-      <c r="A7" s="10">
+      <c r="I6" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="5" customFormat="1" ht="60">
+      <c r="A7" s="8">
         <v>88841</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="J7" s="11" t="s">
+      <c r="C7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
+      <c r="J7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2292,193 +2329,193 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="60.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="52.7109375" customWidth="1"/>
-    <col min="2" max="2" width="30.5703125" customWidth="1"/>
-    <col min="3" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="98.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1">
+      <c r="B1" s="48" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30.75">
       <c r="A2" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="53"/>
-      <c r="B3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="53"/>
-      <c r="B4" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="49" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="54"/>
-      <c r="B6" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="49" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="54"/>
-      <c r="B7" s="17" t="s">
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="53" t="s">
         <v>93</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B5" s="49" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="54"/>
-      <c r="B8" s="17" t="s">
+    <row r="6" spans="1:2" ht="45.75">
+      <c r="A6" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B6" s="49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19.5" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="17" t="s">
+    <row r="7" spans="1:2" ht="30.75">
+      <c r="A7" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="30.75">
+      <c r="A8" s="53" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A10" s="56" t="s">
+      <c r="B8" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="17" t="s">
+    </row>
+    <row r="9" spans="1:2" ht="30.75">
+      <c r="A9" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
+      <c r="B9" s="49" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="24" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="53" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="17" t="s">
+      <c r="B10" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="53" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A13" s="55" t="s">
+      <c r="B11" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="B13" s="17" t="s">
+    </row>
+    <row r="12" spans="1:2" ht="30.75">
+      <c r="A12" s="53" t="s">
         <v>106</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B12" s="49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="36" customHeight="1">
-      <c r="A14" s="55"/>
-      <c r="B14" s="17" t="s">
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="53" t="s">
         <v>108</v>
       </c>
-      <c r="C14" t="s">
+      <c r="B13" s="54" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30.75" customHeight="1">
-      <c r="A15" s="55"/>
-      <c r="B15" s="17" t="s">
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="53" t="s">
         <v>110</v>
       </c>
-      <c r="C15" t="s">
+      <c r="B14" s="54" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="66.75" customHeight="1">
-      <c r="A16" s="2" t="s">
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="B16" s="17" t="s">
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="54" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="67.5" customHeight="1">
-      <c r="A17" s="3" t="s">
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B17" s="49" t="s">
         <v>116</v>
       </c>
     </row>
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B18" s="54" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="45.75">
+      <c r="A19" s="53" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="30.75">
+      <c r="A21" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="54" t="s">
+        <v>125</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A10:A12"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2733,6 +2770,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
@@ -2743,23 +2789,14 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E49F37BD-DCA6-4E87-B339-5BD75433E21F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E370EEFA-763F-46E4-A8EB-13455592D94A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515C72A-9C02-46AF-A4B9-D8CA5C77DC7A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2515C72A-9C02-46AF-A4B9-D8CA5C77DC7A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E370EEFA-763F-46E4-A8EB-13455592D94A}"/>
 </file>